--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW4.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW4.xlsx
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.9433250004364999</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="108">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>2.837873683344</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7247,37 +7247,37 @@
         <v>188.0</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="H189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="I189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="J189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="K189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="L189" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
@@ -8425,37 +8425,37 @@
         <v>219.0</v>
       </c>
       <c r="B220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="D220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="E220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="F220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="G220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="H220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="I220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="J220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="K220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
       <c r="L220" t="n">
-        <v>1.0258223681475</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
@@ -9185,37 +9185,37 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="D240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="E240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="F240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="G240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="I240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="J240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="K240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
       <c r="L240" t="n">
-        <v>3.192750001155</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
@@ -9223,37 +9223,37 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="G241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="H241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="I241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="J241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="L241" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
@@ -10933,37 +10933,37 @@
         <v>285.0</v>
       </c>
       <c r="B286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="C286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="D286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="E286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="F286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="G286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="H286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="I286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="J286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="K286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
       <c r="L286" t="n">
-        <v>0.327885526423</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="287">
@@ -12111,37 +12111,37 @@
         <v>316.0</v>
       </c>
       <c r="B317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="C317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="D317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="E317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="F317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="G317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="H317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="I317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="J317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="K317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
       <c r="L317" t="n">
-        <v>1.3896473684939998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="318">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>1.197900000132</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>0.9479250001485</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="C505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="D505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="G505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="H505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="I505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="J505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="K505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
       <c r="L505" t="n">
-        <v>0.3128250001131666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="506">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>0.967575</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>0.32252499999999995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>1.5697083327441668</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
@@ -23435,37 +23435,37 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="C615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="D615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="E615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="F615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="I615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="J615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="K615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
       <c r="L615" t="n">
-        <v>0.967724999604</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
